--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_45.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.1036789297658863</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -618,585 +634,552 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[('0:00:18.300000', '0:00:21.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.780000', '0:00:12.600000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[('0:00:12.260000', '0:00:25.040000'), ('0:01:05.260000', '0:01:11.040000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:13.660000', '0:00:17.900000'), ('0:00:31.600000', '0:00:33.800000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(27.52, 38.5)]</t>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(59.9, 69.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(20.56, 26.4)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
